--- a/memorymap.xlsx
+++ b/memorymap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\OricScreenEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC03A4B-7DEC-4CA0-9C88-E495D59213FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2168A7-3277-4EA5-8C2C-B9FFE526DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{FD51EA92-13D1-466E-83A2-BAF3E5CEB56D}"/>
+    <workbookView xWindow="38295" yWindow="240" windowWidth="28800" windowHeight="15345" xr2:uid="{FD51EA92-13D1-466E-83A2-BAF3E5CEB56D}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory map" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Memory map</t>
   </si>
@@ -59,9 +59,6 @@
     <t>BB80</t>
   </si>
   <si>
-    <t>Overlay</t>
-  </si>
-  <si>
     <t>BFE0</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>SizeDec</t>
   </si>
   <si>
-    <t>FFFF</t>
-  </si>
-  <si>
     <t>Window</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>ProgramMain</t>
   </si>
   <si>
-    <t>VisualChardata</t>
-  </si>
-  <si>
     <t>B500</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>B100</t>
   </si>
   <si>
-    <t>A900</t>
-  </si>
-  <si>
     <t>Ink</t>
   </si>
   <si>
@@ -162,6 +150,15 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>C000</t>
+  </si>
+  <si>
+    <t>AA00</t>
   </si>
 </sst>
 </file>
@@ -522,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40711B7E-FB95-40EB-8A98-5CDE0B95CB31}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,280 +537,251 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>500</v>
       </c>
       <c r="C3" s="1">
         <f>+B4</f>
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>DEC2HEX(G3,4)</f>
-        <v>8400</v>
+        <f t="shared" ref="D3:D7" si="0">DEC2HEX(G3,4)</f>
+        <v>8B00</v>
       </c>
       <c r="E3" s="1">
-        <f>HEX2DEC(B3)</f>
+        <f t="shared" ref="E3:E7" si="1">HEX2DEC(B3)</f>
         <v>1280</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3" si="0">HEX2DEC(C3)</f>
-        <v>35072</v>
+        <f t="shared" ref="F3" si="2">HEX2DEC(C3)</f>
+        <v>36864</v>
       </c>
       <c r="G3" s="1">
-        <f>+F3-E3</f>
-        <v>33792</v>
+        <f t="shared" ref="G3:G7" si="3">+F3-E3</f>
+        <v>35584</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>+B5</f>
-        <v>A900</v>
+        <v>AA00</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>DEC2HEX(G4,4)</f>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1A00</v>
       </c>
       <c r="E4" s="1">
-        <f>HEX2DEC(B4)</f>
-        <v>35072</v>
+        <f t="shared" si="1"/>
+        <v>36864</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4" si="1">HEX2DEC(C4)</f>
-        <v>43264</v>
+        <f t="shared" ref="F4" si="4">HEX2DEC(C4)</f>
+        <v>43520</v>
       </c>
       <c r="G4" s="1">
-        <f>+F4-E4</f>
-        <v>8192</v>
+        <f t="shared" si="3"/>
+        <v>6656</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>+B6</f>
         <v>B100</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>DEC2HEX(G5,4)</f>
-        <v>0800</v>
+        <f t="shared" si="0"/>
+        <v>0700</v>
       </c>
       <c r="E5" s="1">
-        <f>HEX2DEC(B5)</f>
-        <v>43264</v>
+        <f t="shared" si="1"/>
+        <v>43520</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F7" si="2">HEX2DEC(C5)</f>
+        <f t="shared" ref="F5:F6" si="5">HEX2DEC(C5)</f>
         <v>45312</v>
       </c>
       <c r="G5" s="1">
-        <f>+F5-E5</f>
-        <v>2048</v>
+        <f t="shared" si="3"/>
+        <v>1792</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>+B7</f>
-        <v>B400</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>DEC2HEX(G6,4)</f>
+        <f t="shared" si="0"/>
         <v>0300</v>
       </c>
       <c r="E6" s="1">
-        <f>HEX2DEC(B6)</f>
+        <f t="shared" si="1"/>
         <v>45312</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>46080</v>
       </c>
       <c r="G6" s="1">
-        <f>+F6-E6</f>
+        <f t="shared" si="3"/>
         <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>+B8</f>
-        <v>B500</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>DEC2HEX(G7,4)</f>
-        <v>0100</v>
+        <f t="shared" si="0"/>
+        <v>0300</v>
       </c>
       <c r="E7" s="1">
-        <f>HEX2DEC(B7)</f>
-        <v>46080</v>
+        <f t="shared" si="1"/>
+        <v>46336</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>46336</v>
+        <f t="shared" ref="F7:F10" si="6">HEX2DEC(C7)</f>
+        <v>47104</v>
       </c>
       <c r="G7" s="1">
-        <f>+F7-E7</f>
-        <v>256</v>
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+      <c r="H7">
+        <f>+G7/8</f>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>+B9</f>
+        <v>BB80</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>DEC2HEX(G8,4)</f>
-        <v>0300</v>
+        <f t="shared" ref="D8:D10" si="7">DEC2HEX(G8,4)</f>
+        <v>0280</v>
       </c>
       <c r="E8" s="1">
-        <f>HEX2DEC(B8)</f>
-        <v>46336</v>
+        <f t="shared" ref="E8:E10" si="8">HEX2DEC(B8)</f>
+        <v>47360</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:F11" si="3">HEX2DEC(C8)</f>
-        <v>47104</v>
+        <f t="shared" si="6"/>
+        <v>48000</v>
       </c>
       <c r="G8" s="1">
-        <f>+F8-E8</f>
-        <v>768</v>
+        <f t="shared" ref="G8:G10" si="9">+F8-E8</f>
+        <v>640</v>
       </c>
       <c r="H8">
         <f>+G8/8</f>
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>+B10</f>
-        <v>BB80</v>
+        <v>BFE0</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9:D11" si="4">DEC2HEX(G9,4)</f>
-        <v>0280</v>
+        <f t="shared" si="7"/>
+        <v>0460</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E11" si="5">HEX2DEC(B9)</f>
-        <v>47360</v>
+        <f t="shared" si="8"/>
+        <v>48000</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
-        <v>48000</v>
+        <f t="shared" si="6"/>
+        <v>49120</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:G11" si="6">+F9-E9</f>
-        <v>640</v>
-      </c>
-      <c r="H9">
-        <f>+G9/8</f>
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>+B11</f>
-        <v>BFE0</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>0460</v>
+        <f t="shared" si="7"/>
+        <v>0020</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="5"/>
-        <v>48000</v>
+        <f t="shared" si="8"/>
+        <v>49120</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="3"/>
-        <v>49120</v>
+        <f t="shared" si="6"/>
+        <v>49152</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="6"/>
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>401F</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="5"/>
-        <v>49120</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>65535</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="6"/>
-        <v>16415</v>
+        <f t="shared" si="9"/>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F65ED6-3220-425D-97D8-B8BB54836D97}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
@@ -959,116 +927,116 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
